--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F8" s="3">
         <v>95000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>96300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>114000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>121100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>114900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>128400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>131200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>118200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>104800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>131900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>167400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>161800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F9" s="3">
         <v>75100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>74000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>81400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>87300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>86900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>91800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>95300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>85100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>74600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>96900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>111600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>108400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F10" s="3">
         <v>19900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>22300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>32600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>33800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>36600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>30200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>35000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>55800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>53400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>95300</v>
+      </c>
+      <c r="F17" s="3">
         <v>89400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>88900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>97600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>104000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>103000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>109000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>112600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>104400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>91500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>116600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>133500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>130200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>17100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>15300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>33900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>31600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,113 +1244,127 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F21" s="3">
         <v>13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>15900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>24900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>25000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>27100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>22600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>20800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>25000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>43500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>42500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1293,11 +1372,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1311,96 +1390,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>17400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>17600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>12200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>20000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>18900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>15700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>34200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>32400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>13000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>22200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>13000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>9400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>22200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>20800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1601,14 +1722,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>500</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>500</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>13000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>22200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>20800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>13000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>22200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>20800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,72 +2139,80 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>32200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>35400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>38500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>137800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>131700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>102700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>63500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>45400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>44000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>35100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>87100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>129500</v>
+      </c>
+      <c r="F42" s="3">
         <v>114500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>99600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>99500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>114300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2047,193 +2226,223 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F43" s="3">
         <v>56000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>41500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>45000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>46800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>50100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>61100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>60100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>53200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>55600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>77600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>69400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F44" s="3">
         <v>33000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>41500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>36500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>31400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>26200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>24000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>26100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>39700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>52200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>52200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>55000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>54500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>12500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>249300</v>
+      </c>
+      <c r="F46" s="3">
         <v>229900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>220500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>226700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>232200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>214400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>208500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>192900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>166800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>153300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>154200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>170900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>214800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,52 +2485,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F48" s="3">
         <v>72100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>74300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>80700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>82700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>84400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>90000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>97100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>103800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>91600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>96600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>102200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>104200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F52" s="3">
         <v>26500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>26100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>24300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>20600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>17200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>32600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>33300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>31000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>27900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>362400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>349000</v>
+      </c>
+      <c r="F54" s="3">
         <v>328500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>320900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>331700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>335500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>316100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>312800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>303300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>284300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>277500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>284100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>304100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>346900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F57" s="3">
         <v>24600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>21900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>27800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>30200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>28900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>28200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>30800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>34600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>45300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>48500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,96 +2975,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F59" s="3">
         <v>24100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>21000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>27700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>38200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>31600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>33500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>23500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>33100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>32400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>61200</v>
+      </c>
+      <c r="F60" s="3">
         <v>48700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>43000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>55600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>71200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>61800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>62400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>64000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>52700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>54300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>56400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>78400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>80900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,52 +3125,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>2200</v>
       </c>
       <c r="G62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1500</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F66" s="3">
         <v>50900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>57800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>71300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>61900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>63300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>64800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>54200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>55000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>56500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>79100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>81000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>380500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>368200</v>
+      </c>
+      <c r="F72" s="3">
         <v>362000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>359600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>358600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>350400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>341900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>338800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>329300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>321300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>314700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>309400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>307800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>293400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>297800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>285500</v>
+      </c>
+      <c r="F76" s="3">
         <v>277600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>275800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>273900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>264200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>254200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>249400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>238500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>230100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>222500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>227600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>225000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>265900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>13000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>22200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>20800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,16 +4024,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="F83" s="3">
         <v>7500</v>
@@ -3647,10 +4044,10 @@
         <v>7500</v>
       </c>
       <c r="H83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="I83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="J83" s="3">
         <v>8200</v>
@@ -3659,22 +4056,28 @@
         <v>8200</v>
       </c>
       <c r="L83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F89" s="3">
         <v>15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>14600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>35700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>45300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>42200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>19100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>19400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-119900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-20400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,52 +4614,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-5100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-4900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-3700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-5900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3700</v>
       </c>
       <c r="L96" s="3">
         <v>-4000</v>
       </c>
       <c r="M96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-8500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-7800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-7800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-15400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-63700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-21800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-99300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>29000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>18100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-52000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E8" s="3">
         <v>123600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>95000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>96300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>121100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>131200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>118200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>104800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>167400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>161800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E9" s="3">
         <v>87600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>80400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>81400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>91800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>96900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>108400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E10" s="3">
         <v>36000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E17" s="3">
         <v>103500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>95300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>104000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>103000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>112600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E18" s="3">
         <v>20100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,99 +1289,105 @@
         <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
       </c>
       <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
       <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E21" s="3">
         <v>28100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1378,8 +1418,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E23" s="3">
         <v>20800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E26" s="3">
         <v>15300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E27" s="3">
         <v>15300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,99 +1925,105 @@
         <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E33" s="3">
         <v>15300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E35" s="3">
         <v>15300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,81 +2227,85 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E41" s="3">
         <v>38000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>137800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>131700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>102700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>87100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E42" s="3">
         <v>149600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>129500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>99600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>99500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>114300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2232,8 +2322,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E43" s="3">
         <v>55800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>61100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>77600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>69400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E44" s="3">
         <v>18300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>26200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>52200</v>
       </c>
       <c r="O44" s="3">
         <v>52200</v>
       </c>
       <c r="P44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>55000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E46" s="3">
         <v>264600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>249300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>229900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>220500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>226700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>232200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>214400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>208500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>192900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>166800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>153300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>154200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>170900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>214800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2596,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E48" s="3">
         <v>73300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>82700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>84400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>90000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>97100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>103800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>96600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>102200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>104200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E52" s="3">
         <v>24400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>389900</v>
+      </c>
+      <c r="E54" s="3">
         <v>362400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>349000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>328500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>320900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>331700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>335500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>316100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>312800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>303300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>284300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>277500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>284100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>304100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>346900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E57" s="3">
         <v>28800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,108 +3115,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E59" s="3">
         <v>33700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E60" s="3">
         <v>62500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,58 +3274,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E66" s="3">
         <v>64600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E72" s="3">
         <v>380500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>368200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>362000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>359600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>358600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>350400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>341900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>338800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>329300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>321300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>314700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>309400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>307800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>293400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311500</v>
+      </c>
+      <c r="E76" s="3">
         <v>297800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>285500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>277600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>275800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>273900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>264200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>254200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>249400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>238500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>230100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>222500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>227600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>225000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>265900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E81" s="3">
         <v>15300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,10 +4234,10 @@
         <v>7200</v>
       </c>
       <c r="E83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F83" s="3">
         <v>6900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7500</v>
       </c>
       <c r="G83" s="3">
         <v>7500</v>
@@ -4050,7 +4249,7 @@
         <v>7500</v>
       </c>
       <c r="J83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="K83" s="3">
         <v>8200</v>
@@ -4062,22 +4261,25 @@
         <v>8200</v>
       </c>
       <c r="N83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O83" s="3">
         <v>7400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>9300</v>
       </c>
       <c r="P83" s="3">
         <v>9300</v>
       </c>
       <c r="Q83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="R83" s="3">
         <v>10100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E89" s="3">
         <v>31100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-119900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-5100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-5900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-7800</v>
       </c>
       <c r="Q96" s="3">
         <v>-7800</v>
       </c>
       <c r="R96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-99300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E8" s="3">
         <v>130300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>123600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>105100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>95000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>96300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>121100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>128400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>131200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>118200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>104800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>167400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>161800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E9" s="3">
         <v>90200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>80400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>81400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>91800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>96900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>108400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E10" s="3">
         <v>40100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>55800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E17" s="3">
         <v>106200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>103500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>89400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>103000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>91500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>133500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E18" s="3">
         <v>24100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,137 +1313,144 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
       </c>
       <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
       <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E21" s="3">
         <v>31900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1421,8 +1461,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E23" s="3">
         <v>24700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>6100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>18600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="3">
         <v>18600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,11 +1853,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
       </c>
       <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E33" s="3">
         <v>18600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E35" s="3">
         <v>18600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,87 +2314,91 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E41" s="3">
         <v>17700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>131700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>102700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>87100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E42" s="3">
         <v>208900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>149600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>129500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>99600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>99500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114300</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2325,8 +2415,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E43" s="3">
         <v>53700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>61100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>77600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E44" s="3">
         <v>12100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>31400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>52200</v>
       </c>
       <c r="P44" s="3">
         <v>52200</v>
       </c>
       <c r="Q44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="R44" s="3">
         <v>55000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>54500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E46" s="3">
         <v>294900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>264600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>249300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>229900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>220500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>226700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>232200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>214400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>192900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>166800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>153300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>154200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>170900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>214800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,61 +2704,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E48" s="3">
         <v>67900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>82700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>84400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>90000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>97100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>103800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>91600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>96600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>102200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>104200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E52" s="3">
         <v>27000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>310600</v>
+      </c>
+      <c r="E54" s="3">
         <v>389900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>362400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>349000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>328500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>320900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>331700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>335500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>316100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>312800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>303300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>284300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>277500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>284100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>304100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>346900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3142,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E57" s="3">
         <v>39700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,114 +3252,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E59" s="3">
         <v>36600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E60" s="3">
         <v>76300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>61200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,61 +3420,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E66" s="3">
         <v>78300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>81000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E72" s="3">
         <v>392900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>380500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>368200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>362000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>359600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>358600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>350400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>341900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>338800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>329300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>321300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>314700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>309400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>307800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>293400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>241300</v>
+      </c>
+      <c r="E76" s="3">
         <v>311500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>297800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>285500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>277600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>275800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>273900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>264200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>254200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>249400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>238500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>230100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>222500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>227600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>225000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>265900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E81" s="3">
         <v>18600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,10 +4436,10 @@
         <v>7200</v>
       </c>
       <c r="F83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G83" s="3">
         <v>6900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7500</v>
       </c>
       <c r="H83" s="3">
         <v>7500</v>
@@ -4252,7 +4451,7 @@
         <v>7500</v>
       </c>
       <c r="K83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="L83" s="3">
         <v>8200</v>
@@ -4264,22 +4463,25 @@
         <v>8200</v>
       </c>
       <c r="O83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P83" s="3">
         <v>7400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>9300</v>
       </c>
       <c r="Q83" s="3">
         <v>9300</v>
       </c>
       <c r="R83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S83" s="3">
         <v>10100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>47000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-119900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5083,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-5100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-7800</v>
       </c>
       <c r="R96" s="3">
         <v>-7800</v>
       </c>
       <c r="S96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-63700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-99300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-52000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E8" s="3">
         <v>145700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>130300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>123600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>105100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>95000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>96300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>121100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>128400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>131200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>118200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>104800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>131900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>167400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>161800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E9" s="3">
         <v>94600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>87600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>80400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>81400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>91800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>95300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>85100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>74600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>96900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>108400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E10" s="3">
         <v>51100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E17" s="3">
         <v>112800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>103500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>95300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>89400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>97600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>103000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>91500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>133500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>130200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E18" s="3">
         <v>32900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,146 +1346,153 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>700</v>
       </c>
       <c r="F20" s="3">
         <v>700</v>
       </c>
       <c r="G20" s="3">
+        <v>700</v>
+      </c>
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
       </c>
       <c r="S20" s="3">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E21" s="3">
         <v>40200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1464,8 +1503,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1482,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E23" s="3">
         <v>32900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E26" s="3">
         <v>24800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E27" s="3">
         <v>24800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-700</v>
       </c>
       <c r="F32" s="3">
         <v>-700</v>
       </c>
       <c r="G32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-300</v>
       </c>
       <c r="S32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E33" s="3">
         <v>24800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E35" s="3">
         <v>24800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,93 +2400,97 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E41" s="3">
         <v>29700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>131700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>102700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>45400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>87100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E42" s="3">
         <v>104000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>208900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>149600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>129500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>114500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>99600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>99500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114300</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2418,8 +2507,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2427,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E43" s="3">
         <v>58200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>53700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>56000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>45000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>77600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>69400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E44" s="3">
         <v>13600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>52200</v>
       </c>
       <c r="Q44" s="3">
         <v>52200</v>
       </c>
       <c r="R44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="S44" s="3">
         <v>55000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>54500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E46" s="3">
         <v>213000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>294900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>264600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>249300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>229900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>220500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>226700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>232200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>214400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>192900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>166800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>153300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>170900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>214800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E48" s="3">
         <v>62700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>84400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>90000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>97100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>103800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>96600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>102200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>104200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E52" s="3">
         <v>34900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>348300</v>
+      </c>
+      <c r="E54" s="3">
         <v>310600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>389900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>362400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>349000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>328500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>320900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>331700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>335500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>316100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>312800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>303300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>284300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>277500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>284100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>304100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>346900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E57" s="3">
         <v>27100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3255,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E59" s="3">
         <v>40300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E60" s="3">
         <v>67400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,64 +3565,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E66" s="3">
         <v>69300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E72" s="3">
         <v>320900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>392900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>380500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>368200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>362000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>359600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>358600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>350400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>341900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>338800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>329300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>321300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>314700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>309400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>307800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>293400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>264700</v>
+      </c>
+      <c r="E76" s="3">
         <v>241300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>311500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>297800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>285500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>277600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>275800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>273900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>264200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>254200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>249400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>238500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>230100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>222500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>227600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>225000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>265900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E81" s="3">
         <v>24800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,13 +4621,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7200</v>
+        <v>5900</v>
       </c>
       <c r="E83" s="3">
         <v>7200</v>
@@ -4439,10 +4637,10 @@
         <v>7200</v>
       </c>
       <c r="G83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H83" s="3">
         <v>6900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7500</v>
       </c>
       <c r="I83" s="3">
         <v>7500</v>
@@ -4454,7 +4652,7 @@
         <v>7500</v>
       </c>
       <c r="L83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="M83" s="3">
         <v>8200</v>
@@ -4466,22 +4664,25 @@
         <v>8200</v>
       </c>
       <c r="P83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>9300</v>
       </c>
       <c r="R83" s="3">
         <v>9300</v>
       </c>
       <c r="S83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="T83" s="3">
         <v>10100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E94" s="3">
         <v>102900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-119900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-94800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-6200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-5100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-4900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-7800</v>
       </c>
       <c r="S96" s="3">
         <v>-7800</v>
       </c>
       <c r="T96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-94800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-63700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E102" s="3">
         <v>11900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-99300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-52000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E8" s="3">
         <v>169300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>123600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>105100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>95000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>96300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>121100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>118200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>104800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>131900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>167400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>161800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E9" s="3">
         <v>105100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>80400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>81400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>91800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>95300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>85100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>74600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>96900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>108400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E10" s="3">
         <v>64200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E17" s="3">
         <v>127200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>106200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>103500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>95300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>89400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>103000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>91500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>133500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>130200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E18" s="3">
         <v>42100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
       </c>
       <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
       </c>
       <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
       <c r="T20" s="3">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E21" s="3">
         <v>48500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,28 +1514,28 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1506,8 +1546,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E23" s="3">
         <v>42600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E24" s="3">
         <v>10900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E26" s="3">
         <v>31700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E27" s="3">
         <v>31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
       </c>
       <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
       </c>
       <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-300</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
       <c r="T32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E33" s="3">
         <v>31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E35" s="3">
         <v>31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,99 +2487,103 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E41" s="3">
         <v>20100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>131700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>102700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>45400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>87100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E42" s="3">
         <v>121000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>104000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>208900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>149600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>129500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>114500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>99600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114300</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2600,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E43" s="3">
         <v>57900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>56000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>77600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>69400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E44" s="3">
         <v>29100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>52200</v>
       </c>
       <c r="R44" s="3">
         <v>52200</v>
       </c>
       <c r="S44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="T44" s="3">
         <v>55000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>54500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E46" s="3">
         <v>234400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>213000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>294900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>264600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>249300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>229900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>220500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>226700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>232200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>214400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>208500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>192900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>166800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>153300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>154200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>170900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>214800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E48" s="3">
         <v>72900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73300</v>
       </c>
-      <c r="H48" s="3">
-        <v>73900</v>
-      </c>
       <c r="I48" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J48" s="3">
         <v>72100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>84400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>90000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>97100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>103800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>91600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>96600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>104200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,58 +3179,61 @@
         <v>41000</v>
       </c>
       <c r="E52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F52" s="3">
         <v>34900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24400</v>
       </c>
-      <c r="H52" s="3">
-        <v>25700</v>
-      </c>
       <c r="I52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J52" s="3">
         <v>26500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>32600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>364100</v>
+      </c>
+      <c r="E54" s="3">
         <v>348300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>310600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>389900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>362400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>349000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>328500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>320900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>331700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>335500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>312800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>303300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>284300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>277500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>284100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>304100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>346900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E57" s="3">
         <v>36600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3525,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E59" s="3">
         <v>45100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>32400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E60" s="3">
         <v>81800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>61200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>78400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>80900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,67 +3711,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E66" s="3">
         <v>83600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>367800</v>
+      </c>
+      <c r="E72" s="3">
         <v>342600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>320900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>392900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>380500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>368200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>362000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>359600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>358600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>350400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>341900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>338800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>329300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>321300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>314700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>309400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>307800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>293400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E76" s="3">
         <v>264700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>241300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>311500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>297800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>285500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>277600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>275800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>273900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>264200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>254200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>249400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>238500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>230100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>222500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>227600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>225000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>265900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E81" s="3">
         <v>31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,16 +4820,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7200</v>
       </c>
       <c r="F83" s="3">
         <v>7200</v>
@@ -4640,10 +4839,10 @@
         <v>7200</v>
       </c>
       <c r="H83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I83" s="3">
         <v>6900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7500</v>
       </c>
       <c r="J83" s="3">
         <v>7500</v>
@@ -4655,7 +4854,7 @@
         <v>7500</v>
       </c>
       <c r="M83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="N83" s="3">
         <v>8200</v>
@@ -4667,22 +4866,25 @@
         <v>8200</v>
       </c>
       <c r="Q83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="R83" s="3">
         <v>7400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>9300</v>
       </c>
       <c r="S83" s="3">
         <v>9300</v>
       </c>
       <c r="T83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="U83" s="3">
         <v>10100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E89" s="3">
         <v>61800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>47000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>102900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-119900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-94800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-6200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-5100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-7800</v>
       </c>
       <c r="T96" s="3">
         <v>-7800</v>
       </c>
       <c r="U96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-94800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-63700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-99300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-52000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E8" s="3">
         <v>184400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>169300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>123600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>105100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>95000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>96300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>121100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>128400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>118200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>104800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>131900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>167400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>161800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E9" s="3">
         <v>111800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>80400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>81400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>91800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>95300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>74600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>96900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>111600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>108400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E10" s="3">
         <v>72600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>55800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E17" s="3">
         <v>132400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>106200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>103500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>89400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>103000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>91500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>133500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>130200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E18" s="3">
         <v>52000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
       </c>
       <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
       </c>
       <c r="M20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>300</v>
       </c>
       <c r="T20" s="3">
         <v>300</v>
       </c>
       <c r="U20" s="3">
+        <v>300</v>
+      </c>
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E21" s="3">
         <v>59900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,28 +1557,28 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1549,8 +1589,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E23" s="3">
         <v>52400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E24" s="3">
         <v>14200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E26" s="3">
         <v>38200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E27" s="3">
         <v>38200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,8 +2026,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
       </c>
       <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1000</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-300</v>
       </c>
       <c r="T32" s="3">
         <v>-300</v>
       </c>
       <c r="U32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E33" s="3">
         <v>38200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E35" s="3">
         <v>38200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,105 +2574,109 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E41" s="3">
         <v>24100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>131700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>102700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>45400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>87100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E42" s="3">
         <v>122000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>121000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>104000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>208900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>149600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>129500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>99500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114300</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2603,8 +2693,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E43" s="3">
         <v>73200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>61100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>77600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>69400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E44" s="3">
         <v>28800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39700</v>
-      </c>
-      <c r="R44" s="3">
-        <v>52200</v>
       </c>
       <c r="S44" s="3">
         <v>52200</v>
       </c>
       <c r="T44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="U44" s="3">
         <v>55000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>54500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>285600</v>
+      </c>
+      <c r="E46" s="3">
         <v>252200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>234400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>213000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>294900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>264600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>249300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>229900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>220500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>226700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>232200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>214400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>208500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>192900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>166800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>153300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>154200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>170900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>214800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,70 +3027,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E48" s="3">
         <v>70800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>73300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>76500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>90000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>97100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>103800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>91600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>96600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>102200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>104200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="E52" s="3">
         <v>41000</v>
       </c>
       <c r="F52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G52" s="3">
         <v>34900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>27900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>398900</v>
+      </c>
+      <c r="E54" s="3">
         <v>364100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>348300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>310600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>389900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>362400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>349000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>328500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>320900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>331700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>335500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>316100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>312800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>303300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>284300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>277500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>284100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>304100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>346900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E57" s="3">
         <v>34500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,132 +3662,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E59" s="3">
         <v>38500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>32400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E60" s="3">
         <v>73000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>61800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>78400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>80900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,70 +3857,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E66" s="3">
         <v>75600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>81000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E72" s="3">
         <v>367800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>342600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>320900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>392900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>380500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>368200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>362000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>359600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>358600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>350400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>341900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>338800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>329300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>321300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>314700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>309400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>307800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>293400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319100</v>
+      </c>
+      <c r="E76" s="3">
         <v>288500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>264700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>241300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>311500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>297800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>285500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>277600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>275800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>273900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>264200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>254200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>249400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>238500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>230100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>222500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>227600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>225000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>265900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E81" s="3">
         <v>38200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,19 +5019,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7200</v>
       </c>
       <c r="G83" s="3">
         <v>7200</v>
@@ -4842,10 +5041,10 @@
         <v>7200</v>
       </c>
       <c r="I83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J83" s="3">
         <v>6900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7500</v>
       </c>
       <c r="K83" s="3">
         <v>7500</v>
@@ -4857,7 +5056,7 @@
         <v>7500</v>
       </c>
       <c r="N83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="O83" s="3">
         <v>8200</v>
@@ -4869,22 +5068,25 @@
         <v>8200</v>
       </c>
       <c r="R83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S83" s="3">
         <v>7400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>9300</v>
       </c>
       <c r="T83" s="3">
         <v>9300</v>
       </c>
       <c r="U83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="V83" s="3">
         <v>10100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E89" s="3">
         <v>27800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>61800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>47000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>102900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-119900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-94800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-6200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-7800</v>
       </c>
       <c r="U96" s="3">
         <v>-7800</v>
       </c>
       <c r="V96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-94800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-63700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-99300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>29000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-52000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E8" s="3">
         <v>200100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>184400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>169300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>130300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>123600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>105100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>95000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>96300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>121100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>128400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>131200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>118200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>104800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>131900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>167400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>161800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E9" s="3">
         <v>121300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>80400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>81400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>87300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>91800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>95300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>96900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>111600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>108400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E10" s="3">
         <v>78800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>55800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>53400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E17" s="3">
         <v>140400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>106200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>103500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>95300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>103000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>91500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>116600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>133500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>130200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E18" s="3">
         <v>59700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>52000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,143 +1448,150 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>700</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
       </c>
       <c r="J20" s="3">
+        <v>700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
       <c r="N20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>300</v>
       </c>
       <c r="U20" s="3">
         <v>300</v>
       </c>
       <c r="V20" s="3">
+        <v>300</v>
+      </c>
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E21" s="3">
         <v>67500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>59900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>40200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>43500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1560,28 +1600,28 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1592,8 +1632,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E23" s="3">
         <v>60300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E24" s="3">
         <v>15900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E26" s="3">
         <v>44400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E27" s="3">
         <v>44400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2090,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2108,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-700</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
       </c>
       <c r="J32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1000</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-300</v>
       </c>
       <c r="U32" s="3">
         <v>-300</v>
       </c>
       <c r="V32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E33" s="3">
         <v>44400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E35" s="3">
         <v>44400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,111 +2661,115 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E41" s="3">
         <v>23600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>137800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>131700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>102700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>45400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>87100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E42" s="3">
         <v>150000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>121000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>208900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>149600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>129500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>99600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>99500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114300</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2696,8 +2786,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E43" s="3">
         <v>76100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>53700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>52200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>60100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>53200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>77600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>69400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E44" s="3">
         <v>32000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>36500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>24000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>52200</v>
       </c>
       <c r="T44" s="3">
         <v>52200</v>
       </c>
       <c r="U44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="V44" s="3">
         <v>55000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>54500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E46" s="3">
         <v>285600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>252200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>234400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>213000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>294900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>264600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>249300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>229900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>220500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>226700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>232200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>214400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>208500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>192900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>166800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>153300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>154200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>170900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>214800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,73 +3135,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E48" s="3">
         <v>69500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>73300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>76500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>90000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>97100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>103800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>91600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>96600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>102200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>104200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E52" s="3">
         <v>43800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>41000</v>
       </c>
       <c r="F52" s="3">
         <v>41000</v>
       </c>
       <c r="G52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="H52" s="3">
         <v>34900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>32600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>27900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>420100</v>
+      </c>
+      <c r="E54" s="3">
         <v>398900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>364100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>348300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>310600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>389900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>362400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>349000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>328500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>320900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>331700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>335500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>316100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>312800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>303300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>284300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>277500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>284100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>304100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>346900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E57" s="3">
         <v>37900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,138 +3799,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E59" s="3">
         <v>39800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>38500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>32400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E60" s="3">
         <v>77700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>61800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>78400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>80900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,73 +4003,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E66" s="3">
         <v>79700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>81000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>414100</v>
+      </c>
+      <c r="E72" s="3">
         <v>396800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>367800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>342600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>320900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>392900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>380500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>368200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>362000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>359600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>358600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>350400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>341900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>338800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>329300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>321300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>314700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>309400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>307800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>293400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E76" s="3">
         <v>319100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>288500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>264700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>241300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>311500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>297800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>285500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>277600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>275800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>273900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>264200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>254200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>249400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>238500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>230100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>222500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>227600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>225000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>265900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E81" s="3">
         <v>44400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,13 +5228,13 @@
         <v>7300</v>
       </c>
       <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7200</v>
       </c>
       <c r="H83" s="3">
         <v>7200</v>
@@ -5044,10 +5243,10 @@
         <v>7200</v>
       </c>
       <c r="J83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K83" s="3">
         <v>6900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7500</v>
       </c>
       <c r="L83" s="3">
         <v>7500</v>
@@ -5059,7 +5258,7 @@
         <v>7500</v>
       </c>
       <c r="O83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="P83" s="3">
         <v>8200</v>
@@ -5071,22 +5270,25 @@
         <v>8200</v>
       </c>
       <c r="S83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="T83" s="3">
         <v>7400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>9300</v>
       </c>
       <c r="U83" s="3">
         <v>9300</v>
       </c>
       <c r="V83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="W83" s="3">
         <v>10100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E89" s="3">
         <v>48400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>47000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>102900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-119900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6018,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-15100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-94800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-7800</v>
       </c>
       <c r="V96" s="3">
         <v>-7800</v>
       </c>
       <c r="W96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="X96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-94800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-63700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-21800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-99300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-52000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E8" s="3">
         <v>178200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>184400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>169300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>145700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>130300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>123600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>105100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>95000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>96300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>121100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>128400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>131200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>118200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>104800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>131900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>167400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>161800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E9" s="3">
         <v>113400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>121300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>111800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>105100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>94600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>81400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>87300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>86900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>95300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>96900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>111600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>108400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E10" s="3">
         <v>64800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>55800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E17" s="3">
         <v>131500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>106200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>103500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>103000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>91500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>116600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>133500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>130200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E18" s="3">
         <v>46700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>59700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>52000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,153 +1482,160 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>700</v>
       </c>
       <c r="K20" s="3">
+        <v>700</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
       </c>
       <c r="O20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>300</v>
       </c>
       <c r="V20" s="3">
         <v>300</v>
       </c>
       <c r="W20" s="3">
+        <v>300</v>
+      </c>
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E21" s="3">
         <v>55400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>67500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>59900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>40200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>43500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>42500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1603,28 +1643,28 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1635,8 +1675,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1653,144 +1693,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E23" s="3">
         <v>48000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>12800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E26" s="3">
         <v>35200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E27" s="3">
         <v>35200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,8 +2154,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2111,11 +2172,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-700</v>
       </c>
       <c r="K32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>-1000</v>
       </c>
       <c r="O32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-300</v>
       </c>
       <c r="V32" s="3">
         <v>-300</v>
       </c>
       <c r="W32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E33" s="3">
         <v>35200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E35" s="3">
         <v>35200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,117 +2748,121 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>137800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>131700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>102700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>45400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>87100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E42" s="3">
         <v>165000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>150000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>122000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>121000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>104000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>208900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>149600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>129500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>99600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>99500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114300</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2789,8 +2879,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2798,280 +2888,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E43" s="3">
         <v>71900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>53700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>46800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>61100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>53200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>77600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>69400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E44" s="3">
         <v>39100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>32000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>36500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>31400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>24000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>52200</v>
       </c>
       <c r="U44" s="3">
         <v>52200</v>
       </c>
       <c r="V44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="W44" s="3">
         <v>55000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>54500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>328700</v>
+      </c>
+      <c r="E46" s="3">
         <v>308900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>285600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>252200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>213000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>294900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>264600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>249300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>229900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>220500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>226700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>232200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>214400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>208500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>192900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>166800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>153300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>154200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>170900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>214800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,76 +3243,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E48" s="3">
         <v>66300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>73300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>90000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>97100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>103800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>91600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>96600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>102200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>104200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3527,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E52" s="3">
         <v>44900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>41000</v>
       </c>
       <c r="G52" s="3">
         <v>41000</v>
       </c>
       <c r="H52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I52" s="3">
         <v>34900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>32600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>27900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>442300</v>
+      </c>
+      <c r="E54" s="3">
         <v>420100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>398900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>364100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>348300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>310600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>389900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>362400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>349000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>328500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>320900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>331700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>335500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>316100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>312800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>303300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>284300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>277500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>284100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>304100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>346900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E57" s="3">
         <v>38100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>48500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3802,144 +3936,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E59" s="3">
         <v>42300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>32400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E60" s="3">
         <v>80400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>76300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>61800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>64000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>78400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>80900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,8 +4149,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4015,67 +4161,70 @@
         <v>1600</v>
       </c>
       <c r="E62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E66" s="3">
         <v>82000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>79700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>71300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>81000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>438100</v>
+      </c>
+      <c r="E72" s="3">
         <v>414100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>396800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>367800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>342600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>320900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>392900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>380500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>368200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>362000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>359600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>358600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>350400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>341900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>338800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>329300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>321300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>314700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>309400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>307800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>293400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>363700</v>
+      </c>
+      <c r="E76" s="3">
         <v>338100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>319100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>288500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>264700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>241300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>311500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>297800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>285500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>277600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>275800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>273900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>264200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>254200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>249400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>238500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>230100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>222500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>227600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>225000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>265900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E81" s="3">
         <v>35200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,25 +5417,26 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7300</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
         <v>7300</v>
       </c>
       <c r="F83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7200</v>
       </c>
       <c r="I83" s="3">
         <v>7200</v>
@@ -5246,10 +5445,10 @@
         <v>7200</v>
       </c>
       <c r="K83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L83" s="3">
         <v>6900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7500</v>
       </c>
       <c r="M83" s="3">
         <v>7500</v>
@@ -5261,7 +5460,7 @@
         <v>7500</v>
       </c>
       <c r="P83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="Q83" s="3">
         <v>8200</v>
@@ -5273,22 +5472,25 @@
         <v>8200</v>
       </c>
       <c r="T83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="U83" s="3">
         <v>7400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>9300</v>
       </c>
       <c r="V83" s="3">
         <v>9300</v>
       </c>
       <c r="W83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="X83" s="3">
         <v>10100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E89" s="3">
         <v>40800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>47000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>45300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>102900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-119900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,76 +6252,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-15100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-94800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-7800</v>
       </c>
       <c r="W96" s="3">
         <v>-7800</v>
       </c>
       <c r="X96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6534,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-94800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-63700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-21800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-99300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>29000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-52000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,335 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E8" s="3">
         <v>168000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>178200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>184400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>169300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>130300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>123600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>105100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>95000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>96300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>121100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>128400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>131200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>118200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>104800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>131900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>167400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>161800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E9" s="3">
         <v>104600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>113400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>81400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>86900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>95300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>85100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>74600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>96900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>111600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>108400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E10" s="3">
         <v>63400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>55800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,8 +1165,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1239,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E17" s="3">
         <v>123300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>140400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>103500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>89400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>97600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>103000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>91500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>116600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>133500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>130200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E18" s="3">
         <v>44700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>59700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>52000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,162 +1516,169 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
       </c>
       <c r="L20" s="3">
+        <v>700</v>
+      </c>
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
       </c>
       <c r="P20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>300</v>
       </c>
       <c r="W20" s="3">
         <v>300</v>
       </c>
       <c r="X20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E21" s="3">
         <v>50100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>67500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>59900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>40200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>42500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1646,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1678,8 +1718,8 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1696,150 +1736,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E23" s="3">
         <v>45900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>42600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>13400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E26" s="3">
         <v>38100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E27" s="3">
         <v>38100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2157,8 +2218,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2175,11 +2236,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2402,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
       </c>
       <c r="L32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
       </c>
       <c r="P32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-300</v>
       </c>
       <c r="W32" s="3">
         <v>-300</v>
       </c>
       <c r="X32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E33" s="3">
         <v>38100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E35" s="3">
         <v>38100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,123 +2835,127 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E41" s="3">
         <v>21000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>137800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>131700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>102700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>45400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>87100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E42" s="3">
         <v>200000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>165000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>150000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>122000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>121000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>104000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>208900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>149600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>129500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>99600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>99500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114300</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2882,8 +2972,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2891,292 +2981,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E43" s="3">
         <v>57000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>71900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>76100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>73200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>53700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>45000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>46800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>61100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>53200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>55600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>77600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>69400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E44" s="3">
         <v>43900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>32000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>24000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>39700</v>
-      </c>
-      <c r="U44" s="3">
-        <v>52200</v>
       </c>
       <c r="V44" s="3">
         <v>52200</v>
       </c>
       <c r="W44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="X44" s="3">
         <v>55000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>54500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>336300</v>
+      </c>
+      <c r="E46" s="3">
         <v>328700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>308900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>285600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>252200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>213000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>294900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>264600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>249300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>229900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>220500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>226700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>232200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>214400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>208500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>192900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>166800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>153300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>154200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>170900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>214800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,79 +3351,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E48" s="3">
         <v>75300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>73300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>74300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>90000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>97100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>103800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>91600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>96600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>104200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3499,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3647,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E52" s="3">
         <v>38300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>41000</v>
       </c>
       <c r="H52" s="3">
         <v>41000</v>
       </c>
       <c r="I52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J52" s="3">
         <v>34900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>32600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>33300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>31000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>27900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>446500</v>
+      </c>
+      <c r="E54" s="3">
         <v>442300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>420100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>398900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>364100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>348300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>310600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>389900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>362400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>349000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>328500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>320900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>331700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>335500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>316100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>312800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>303300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>284300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>277500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>284100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>304100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>346900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,79 +3927,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E57" s="3">
         <v>36200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>48500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3939,150 +4073,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E59" s="3">
         <v>41000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>32400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E60" s="3">
         <v>77100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>77700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>76300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>55600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>62400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>64000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>56400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>78400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>80900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4152,79 +4295,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>1600</v>
       </c>
       <c r="F62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E66" s="3">
         <v>78700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>71300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>81000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>452900</v>
+      </c>
+      <c r="E72" s="3">
         <v>438100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>414100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>396800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>367800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>342600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>320900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>392900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>380500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>368200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>362000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>359600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>358600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>350400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>341900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>338800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>329300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>321300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>314700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>309400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>307800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>293400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E76" s="3">
         <v>363700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>338100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>319100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>288500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>264700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>241300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>311500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>297800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>285500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>277600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>275800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>273900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>264200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>254200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>249400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>238500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>230100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>222500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>227600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>225000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>265900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E81" s="3">
         <v>38100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,28 +5616,29 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7300</v>
       </c>
       <c r="F83" s="3">
         <v>7300</v>
       </c>
       <c r="G83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7200</v>
       </c>
       <c r="J83" s="3">
         <v>7200</v>
@@ -5448,10 +5647,10 @@
         <v>7200</v>
       </c>
       <c r="L83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M83" s="3">
         <v>6900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7500</v>
       </c>
       <c r="N83" s="3">
         <v>7500</v>
@@ -5463,7 +5662,7 @@
         <v>7500</v>
       </c>
       <c r="Q83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="R83" s="3">
         <v>8200</v>
@@ -5475,22 +5674,25 @@
         <v>8200</v>
       </c>
       <c r="U83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="V83" s="3">
         <v>7400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>9300</v>
       </c>
       <c r="W83" s="3">
         <v>9300</v>
       </c>
       <c r="X83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>10100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E89" s="3">
         <v>55300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>61800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>47000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>45300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-48100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>102900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-119900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,79 +6486,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-94800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-7800</v>
       </c>
       <c r="X96" s="3">
         <v>-7800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6780,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-94800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-63700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +6928,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>29000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-52000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E8" s="3">
         <v>166600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>168000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>178200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>184400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>169300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>145700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>96300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>121100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>114900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>128400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>131200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>118200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>104800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>131900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>167400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>161800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E9" s="3">
         <v>108500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>104600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>113400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>121300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>80400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>86900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>95300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>85100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>74600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>96900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>111600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>108400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E10" s="3">
         <v>58100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>55800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>53400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1185,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1262,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E17" s="3">
         <v>127800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>131500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>103500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>97600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>103000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>109000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>91500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>116600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>133500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>130200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E18" s="3">
         <v>38800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>44700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>15300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>31600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1550,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1526,162 +1560,168 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
       </c>
       <c r="L20" s="3">
         <v>700</v>
       </c>
       <c r="M20" s="3">
+        <v>700</v>
+      </c>
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
       </c>
       <c r="Q20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>300</v>
       </c>
       <c r="X20" s="3">
         <v>300</v>
       </c>
       <c r="Y20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E21" s="3">
         <v>46400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>67500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>59900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>43500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>42500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1689,28 +1729,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1721,8 +1761,8 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1739,156 +1779,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E23" s="3">
         <v>39500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E26" s="3">
         <v>30200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E27" s="3">
         <v>30200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2221,8 +2282,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2239,11 +2300,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,8 +2472,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2414,147 +2484,153 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
       </c>
       <c r="L32" s="3">
         <v>-700</v>
       </c>
       <c r="M32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-300</v>
       </c>
       <c r="X32" s="3">
         <v>-300</v>
       </c>
       <c r="Y32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E33" s="3">
         <v>30200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E35" s="3">
         <v>30200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,129 +2922,133 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E41" s="3">
         <v>41600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>137800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>131700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>102700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>45400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>87100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E42" s="3">
         <v>170000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>165000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>150000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>122000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>121000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>104000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>208900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>149600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>129500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>99600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>99500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114300</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2975,8 +3065,8 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2984,304 +3074,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E43" s="3">
         <v>69300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>71900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>76100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>73200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>52600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>45000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>46800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>61100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>60100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>55600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>77600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>69400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E44" s="3">
         <v>46900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>32000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>33000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>36500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>24000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>39700</v>
-      </c>
-      <c r="V44" s="3">
-        <v>52200</v>
       </c>
       <c r="W44" s="3">
         <v>52200</v>
       </c>
       <c r="X44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="Y44" s="3">
         <v>55000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>54500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>334100</v>
+      </c>
+      <c r="E46" s="3">
         <v>336300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>328700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>308900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>285600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>252200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>234400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>213000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>294900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>264600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>249300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>229900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>220500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>226700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>232200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>214400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>208500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>192900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>166800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>153300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>154200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>170900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>214800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,82 +3459,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E48" s="3">
         <v>80700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>75300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>73300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>80700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>82700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>90000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>97100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>103800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>91600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>96600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>102200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>104200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3502,8 +3613,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,82 +3767,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E52" s="3">
         <v>29500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>44900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>41000</v>
       </c>
       <c r="I52" s="3">
         <v>41000</v>
       </c>
       <c r="J52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K52" s="3">
         <v>34900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>32600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>33300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>31000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>27900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>443700</v>
+      </c>
+      <c r="E54" s="3">
         <v>446500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>442300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>420100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>398900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>364100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>348300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>310600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>389900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>362400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>349000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>328500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>320900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>331700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>335500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>316100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>312800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>303300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>284300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>277500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>284100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>304100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>346900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,82 +4058,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E57" s="3">
         <v>33500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>45300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>48500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4076,156 +4210,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E59" s="3">
         <v>32700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>32400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E60" s="3">
         <v>66200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>77700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>62400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>64000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>52700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>54300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>56400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>78400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>80900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4298,8 +4441,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4307,73 +4453,76 @@
         <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
       </c>
       <c r="G62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E66" s="3">
         <v>68500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>56500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>81000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>461400</v>
+      </c>
+      <c r="E72" s="3">
         <v>452900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>438100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>414100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>396800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>367800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>342600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>320900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>392900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>380500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>368200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>362000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>359600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>358600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>350400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>341900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>338800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>329300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>321300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>314700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>309400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>307800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>293400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E76" s="3">
         <v>378000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>363700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>338100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>319100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>288500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>264700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>241300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>311500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>297800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>285500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>277600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>275800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>273900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>264200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>254200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>249400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>238500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>230100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>222500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>227600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>225000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>265900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E81" s="3">
         <v>30200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,31 +5815,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7300</v>
       </c>
       <c r="G83" s="3">
         <v>7300</v>
       </c>
       <c r="H83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7200</v>
       </c>
       <c r="K83" s="3">
         <v>7200</v>
@@ -5650,10 +5849,10 @@
         <v>7200</v>
       </c>
       <c r="M83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N83" s="3">
         <v>6900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7500</v>
       </c>
       <c r="O83" s="3">
         <v>7500</v>
@@ -5665,7 +5864,7 @@
         <v>7500</v>
       </c>
       <c r="R83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="S83" s="3">
         <v>8200</v>
@@ -5677,22 +5876,25 @@
         <v>8200</v>
       </c>
       <c r="V83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="W83" s="3">
         <v>7400</v>
-      </c>
-      <c r="W83" s="3">
-        <v>9300</v>
       </c>
       <c r="X83" s="3">
         <v>9300</v>
       </c>
       <c r="Y83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>10100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E89" s="3">
         <v>18800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>61800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>45300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>102900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-119900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,82 +6720,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-15200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-94800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-4000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-7800</v>
       </c>
       <c r="Y96" s="3">
         <v>-7800</v>
       </c>
       <c r="Z96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,82 +7026,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-94800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-63700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,78 +7180,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>20500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-99300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>29000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E8" s="3">
         <v>140700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>166600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>168000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>178200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>184400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>169300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>145700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>105100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>96300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>121100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>114900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>128400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>131200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>118200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>104800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>131900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>167400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>161800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E9" s="3">
         <v>97100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>108500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>104600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>113400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>121300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>111800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>94600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>80400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>74000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>87300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>86900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>95300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>85100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>74600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>96900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>111600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>108400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E10" s="3">
         <v>43600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>63400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>78800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>72600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>36600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>33100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>30200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>55800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>53400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1205,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,8 +1285,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E17" s="3">
         <v>115500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>131500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>140400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>103500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>89400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>97600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>103000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>91500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>116600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>133500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>130200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E18" s="3">
         <v>25200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>33900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>31600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,180 +1584,187 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
         <v>900</v>
       </c>
       <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>700</v>
       </c>
       <c r="M20" s="3">
         <v>700</v>
       </c>
       <c r="N20" s="3">
+        <v>700</v>
+      </c>
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
       </c>
       <c r="R20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
-      </c>
-      <c r="X20" s="3">
-        <v>300</v>
       </c>
       <c r="Y20" s="3">
         <v>300</v>
       </c>
       <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E21" s="3">
         <v>32800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>59900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>25000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>43500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>42500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1732,28 +1772,28 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1764,8 +1804,8 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1782,162 +1822,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>26100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>18900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>13400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>5300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E26" s="3">
         <v>20800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>20800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E27" s="3">
         <v>20800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2285,8 +2346,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2364,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,162 +2542,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
         <v>-900</v>
       </c>
       <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-700</v>
       </c>
       <c r="M32" s="3">
         <v>-700</v>
       </c>
       <c r="N32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
       </c>
       <c r="R32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-300</v>
       </c>
       <c r="Y32" s="3">
         <v>-300</v>
       </c>
       <c r="Z32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E33" s="3">
         <v>20800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E35" s="3">
         <v>20800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,135 +3009,139 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E41" s="3">
         <v>43500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>137800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>131700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>102700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>45400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>35100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>87100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E42" s="3">
         <v>165000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>170000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>165000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>150000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>122000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>121000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>104000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>208900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>149600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>129500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>99600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>99500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>114300</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3068,8 +3158,8 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3077,316 +3167,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E43" s="3">
         <v>56200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>69300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>71900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>73200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>41500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>45000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>46800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>61100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>60100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>53200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>55600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>77600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>69400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E44" s="3">
         <v>57100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>36500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>24000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>39700</v>
-      </c>
-      <c r="W44" s="3">
-        <v>52200</v>
       </c>
       <c r="X44" s="3">
         <v>52200</v>
       </c>
       <c r="Y44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>55000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>54500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E46" s="3">
         <v>334100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>336300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>328700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>308900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>285600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>252200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>234400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>213000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>294900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>264600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>249300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>229900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>220500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>226700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>232200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>214400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>208500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>192900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>166800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>153300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>154200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>170900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>214800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3462,85 +3567,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E48" s="3">
         <v>77700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>75300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>69500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>67900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>73300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>76500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>72100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>80700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>82700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>90000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>97100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>103800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>91600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>96600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>102200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>104200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3616,8 +3727,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,85 +3887,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E52" s="3">
         <v>31900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>44900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>41000</v>
       </c>
       <c r="J52" s="3">
         <v>41000</v>
       </c>
       <c r="K52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="L52" s="3">
         <v>34900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>32600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>33300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>31000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>27900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>460900</v>
+      </c>
+      <c r="E54" s="3">
         <v>443700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>446500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>442300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>420100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>398900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>364100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>348300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>310600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>389900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>362400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>349000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>328500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>320900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>331700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>335500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>316100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>312800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>303300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>284300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>277500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>284100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>304100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>346900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,85 +4189,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E57" s="3">
         <v>27000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>28200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>30800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>45300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>48500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4213,162 +4347,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E59" s="3">
         <v>27500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>20300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>33100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>32400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E60" s="3">
         <v>54500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>77100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>61200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>61800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>62400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>64000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>52700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>54300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>56400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>78400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>80900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4444,85 +4587,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
       </c>
       <c r="H62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
         <v>1000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E66" s="3">
         <v>56800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>71300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>55000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>56500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>81000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>471400</v>
+      </c>
+      <c r="E72" s="3">
         <v>461400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>452900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>438100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>414100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>396800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>367800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>342600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>320900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>392900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>380500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>368200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>362000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>359600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>358600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>350400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>341900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>338800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>329300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>321300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>314700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>309400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>307800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>293400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>398500</v>
+      </c>
+      <c r="E76" s="3">
         <v>387000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>378000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>363700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>338100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>319100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>288500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>264700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>241300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>311500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>297800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>285500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>277600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>275800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>273900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>264200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>254200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>249400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>238500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>230100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>222500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>227600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>225000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>265900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E81" s="3">
         <v>20800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,8 +6014,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5825,25 +6024,25 @@
         <v>6700</v>
       </c>
       <c r="E83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7300</v>
       </c>
       <c r="H83" s="3">
         <v>7300</v>
       </c>
       <c r="I83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7200</v>
       </c>
       <c r="L83" s="3">
         <v>7200</v>
@@ -5852,10 +6051,10 @@
         <v>7200</v>
       </c>
       <c r="N83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O83" s="3">
         <v>6900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7500</v>
       </c>
       <c r="P83" s="3">
         <v>7500</v>
@@ -5867,7 +6066,7 @@
         <v>7500</v>
       </c>
       <c r="S83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="T83" s="3">
         <v>8200</v>
@@ -5879,22 +6078,25 @@
         <v>8200</v>
       </c>
       <c r="W83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="X83" s="3">
         <v>7400</v>
-      </c>
-      <c r="X83" s="3">
-        <v>9300</v>
       </c>
       <c r="Y83" s="3">
         <v>9300</v>
       </c>
       <c r="Z83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>10100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E89" s="3">
         <v>13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>48400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>61800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>47000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>45300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>42200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>18900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>19400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>102900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-119900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-20400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,85 +6954,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-15200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-17600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-94800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-4000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-7800</v>
       </c>
       <c r="Z96" s="3">
         <v>-7800</v>
       </c>
       <c r="AA96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,85 +7272,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-94800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-63700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-21800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7183,81 +7432,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-99300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>29000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-14200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,374 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E8" s="3">
         <v>139400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>140700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>166600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>168000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>178200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>184400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>169300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>145700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>105100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>95000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>96300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>114000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>121100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>128400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>131200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>118200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>104800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>131900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>167400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>161800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E9" s="3">
         <v>100500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>108500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>113400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>121300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>111800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>90200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>87600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>74000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>87300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>86900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>95300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>85100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>74600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>96900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>111600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>108400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E10" s="3">
         <v>38900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>63400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>72600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>28000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>36600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>33100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>30200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>35000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>55800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>53400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1225,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1308,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1391,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E17" s="3">
         <v>119500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>131500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>140400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>112800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>103500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>89400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>97600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>103000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>91500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>116600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>133500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>130200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E18" s="3">
         <v>19900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>33900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,168 +1618,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>900</v>
       </c>
       <c r="F20" s="3">
         <v>900</v>
       </c>
       <c r="G20" s="3">
+        <v>900</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>700</v>
       </c>
       <c r="N20" s="3">
         <v>700</v>
       </c>
       <c r="O20" s="3">
+        <v>700</v>
+      </c>
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
       </c>
       <c r="S20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>300</v>
       </c>
       <c r="Z20" s="3">
         <v>300</v>
       </c>
       <c r="AA20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E21" s="3">
         <v>27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>46400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>55400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>59900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>40200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>43500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>42500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,20 +1794,20 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1775,28 +1815,28 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1807,8 +1847,8 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1825,168 +1865,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>60300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>18900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>13400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>34200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E26" s="3">
         <v>18400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>18400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2410,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2367,11 +2428,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>500</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2385,8 +2446,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,168 +2612,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-900</v>
       </c>
       <c r="F32" s="3">
         <v>-900</v>
       </c>
       <c r="G32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-700</v>
       </c>
       <c r="N32" s="3">
         <v>-700</v>
       </c>
       <c r="O32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
       </c>
       <c r="S32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-300</v>
       </c>
       <c r="Z32" s="3">
         <v>-300</v>
       </c>
       <c r="AA32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>18400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>18400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,141 +3096,145 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E41" s="3">
         <v>49900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>137800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>131700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>102700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>63500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>45400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>44000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>35100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>87100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E42" s="3">
         <v>165300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>165000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>170000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>165000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>150000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>122000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>104000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>208900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>149600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>129500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>99600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>99500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>114300</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -3161,8 +3251,8 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3170,328 +3260,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E43" s="3">
         <v>61400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>71900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>73200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>41500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>45000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>46800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>50100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>61100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>60100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>53200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>55600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>77600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>69400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E44" s="3">
         <v>61500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>57100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>41500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>36500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>24000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>26100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>39700</v>
-      </c>
-      <c r="X44" s="3">
-        <v>52200</v>
       </c>
       <c r="Y44" s="3">
         <v>52200</v>
       </c>
       <c r="Z44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="AA44" s="3">
         <v>55000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>54500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E46" s="3">
         <v>351000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>334100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>336300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>328700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>308900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>285600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>252200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>213000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>294900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>264600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>249300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>229900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>220500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>226700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>232200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>214400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>208500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>192900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>166800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>153300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>154200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>170900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>214800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3570,88 +3675,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E48" s="3">
         <v>74000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>77700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>75300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>69500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>70800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>73300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>76500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>72100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>80700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>82700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>90000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>97100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>103800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>91600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>96600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>102200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>104200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3730,8 +3841,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,88 +4007,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E52" s="3">
         <v>35800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>41000</v>
       </c>
       <c r="K52" s="3">
         <v>41000</v>
       </c>
       <c r="L52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="M52" s="3">
         <v>34900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>32600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>33300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>31000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>27900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>484800</v>
+      </c>
+      <c r="E54" s="3">
         <v>460900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>443700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>446500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>442300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>420100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>398900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>364100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>348300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>310600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>389900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>362400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>349000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>328500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>320900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>331700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>335500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>316100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>312800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>303300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>284300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>277500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>284100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>304100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>346900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,88 +4320,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>31000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>28900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>28200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>30800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>45300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>48500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4350,168 +4484,177 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E59" s="3">
         <v>29200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>20300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>23500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>21800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>33100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>32400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>163100</v>
+      </c>
+      <c r="E60" s="3">
         <v>60200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>77100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>80400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>61200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>61800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>62400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>64000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>52700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>54300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>56400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>78400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>80900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4590,88 +4733,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
       </c>
       <c r="I62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
       </c>
       <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>62400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>75600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>50900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>71300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>54200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>55000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>56500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>79100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>81000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>393100</v>
+      </c>
+      <c r="E72" s="3">
         <v>471400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>461400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>452900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>438100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>414100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>396800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>367800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>342600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>320900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>392900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>380500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>368200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>362000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>359600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>358600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>350400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>341900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>338800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>329300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>321300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>314700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>309400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>307800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>293400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>316700</v>
+      </c>
+      <c r="E76" s="3">
         <v>398500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>387000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>378000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>363700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>338100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>319100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>288500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>264700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>241300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>311500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>297800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>285500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>277600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>275800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>273900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>264200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>254200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>249400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>238500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>230100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>222500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>227600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>225000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>265900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>18400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,37 +6213,38 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="E83" s="3">
         <v>6700</v>
       </c>
       <c r="F83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7300</v>
       </c>
       <c r="I83" s="3">
         <v>7300</v>
       </c>
       <c r="J83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7200</v>
       </c>
       <c r="M83" s="3">
         <v>7200</v>
@@ -6054,10 +6253,10 @@
         <v>7200</v>
       </c>
       <c r="O83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P83" s="3">
         <v>6900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7500</v>
       </c>
       <c r="Q83" s="3">
         <v>7500</v>
@@ -6069,7 +6268,7 @@
         <v>7500</v>
       </c>
       <c r="T83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="U83" s="3">
         <v>8200</v>
@@ -6081,22 +6280,25 @@
         <v>8200</v>
       </c>
       <c r="X83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>7400</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>9300</v>
       </c>
       <c r="Z83" s="3">
         <v>9300</v>
       </c>
       <c r="AA83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AB83" s="3">
         <v>10100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E89" s="3">
         <v>17900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>47000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>45300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>42200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>18900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>19400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6825,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7072,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>102900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>12100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-119900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-20400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,88 +7188,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-13900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-17600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-94800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-4000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-3700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-7800</v>
       </c>
       <c r="AA96" s="3">
         <v>-7800</v>
       </c>
       <c r="AB96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,88 +7518,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-94800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-63700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-21800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7435,84 +7684,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-99300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>29000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-14200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,387 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E8" s="3">
         <v>149200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>139400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>140700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>166600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>178200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>184400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>145700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>95000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>96300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>114000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>121100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>114900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>128400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>131200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>118200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>104800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>131900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>167400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>161800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E9" s="3">
         <v>109700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>108500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>113400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>87600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>74000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>87300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>86900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>95300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>85100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>74600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>96900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>111600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>108400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E10" s="3">
         <v>39500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>36600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>33100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>30200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>35000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>55800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>53400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1075,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1159,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,8 +1245,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1331,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1394,8 +1417,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1448,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E17" s="3">
         <v>129500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>119500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>131500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>103500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>97600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>103000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>112600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>91500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>116600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>133500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>130200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E18" s="3">
         <v>19700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>59700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>15300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>33900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>31600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,198 +1652,205 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>900</v>
       </c>
       <c r="G20" s="3">
         <v>900</v>
       </c>
       <c r="H20" s="3">
+        <v>900</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>700</v>
       </c>
       <c r="O20" s="3">
         <v>700</v>
       </c>
       <c r="P20" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
       </c>
       <c r="T20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>300</v>
       </c>
       <c r="AA20" s="3">
         <v>300</v>
       </c>
       <c r="AB20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E21" s="3">
         <v>27400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>46400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>55400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>28200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>27100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>25000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>43500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>42500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1818,28 +1858,28 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1850,8 +1890,8 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1868,174 +1908,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>48000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>60300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>13400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>15700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>34200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>32400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2166,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3">
         <v>19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>9400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>20800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>9400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>22200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2424,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2413,8 +2474,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2431,11 +2492,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2449,8 +2510,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2596,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,174 +2682,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-900</v>
       </c>
       <c r="G32" s="3">
         <v>-900</v>
       </c>
       <c r="H32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-700</v>
       </c>
       <c r="O32" s="3">
         <v>-700</v>
       </c>
       <c r="P32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
       </c>
       <c r="T32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-300</v>
       </c>
       <c r="AA32" s="3">
         <v>-300</v>
       </c>
       <c r="AB32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>22200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2940,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>22200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3151,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,147 +3183,151 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>65200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>137800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>131700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>102700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>63500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>45400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>44000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>35100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>87100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E42" s="3">
         <v>159100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>165300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>165000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>170000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>165000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>150000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>122000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>121000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>104000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>208900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>149600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>129500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>99600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>99500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>114300</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -3254,8 +3344,8 @@
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3263,340 +3353,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E43" s="3">
         <v>65400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>71900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>41500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>45000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>46800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>50100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>61100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>60100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>53200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>55600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>77600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>69400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E44" s="3">
         <v>65000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>46900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>33000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>41500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>36500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>24000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>39700</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>52200</v>
       </c>
       <c r="Z44" s="3">
         <v>52200</v>
       </c>
       <c r="AA44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="AB44" s="3">
         <v>55000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>54500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E46" s="3">
         <v>361800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>351000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>334100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>336300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>328700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>308900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>285600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>252200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>213000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>294900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>264600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>249300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>229900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>220500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>226700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>232200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>214400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>208500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>192900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>166800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>153300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>154200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>170900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>214800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3678,91 +3783,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E48" s="3">
         <v>80500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>77700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>75300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>69500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>67900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>73300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>76500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>72100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>74300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>80700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>82700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>90000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>97100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>103800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>91600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>96600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>102200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>104200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3844,8 +3955,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4041,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,91 +4127,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E52" s="3">
         <v>42400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>41000</v>
       </c>
       <c r="L52" s="3">
         <v>41000</v>
       </c>
       <c r="M52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="N52" s="3">
         <v>34900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>32600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>33300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>31000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>27900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4299,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>389100</v>
+      </c>
+      <c r="E54" s="3">
         <v>484800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>460900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>443700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>446500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>442300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>420100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>398900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>364100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>348300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>310600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>389900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>362400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>349000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>328500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>320900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>331700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>335500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>316100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>312800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>303300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>284300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>277500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>284100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>304100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>346900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4419,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,91 +4451,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35700</v>
+        <v>32700</v>
       </c>
       <c r="E57" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F57" s="3">
         <v>31000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>28900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>30800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>45300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>48500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4487,174 +4621,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>127400</v>
+        <v>28900</v>
       </c>
       <c r="E59" s="3">
+        <v>128100</v>
+      </c>
+      <c r="F59" s="3">
         <v>29200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>38200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>35900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>20300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>23500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>21800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>33100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>32400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E60" s="3">
         <v>163100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>61200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>71200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>61800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>62400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>64000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>52700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>54300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>56400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>78400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>80900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4736,91 +4879,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2300</v>
       </c>
       <c r="G62" s="3">
         <v>2300</v>
       </c>
       <c r="H62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="I62" s="3">
         <v>1600</v>
       </c>
       <c r="J62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
       <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
         <v>1000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5051,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5137,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5223,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E66" s="3">
         <v>168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>71300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>54200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>55000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>56500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>79100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>81000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5343,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5427,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5513,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5599,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5685,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>399400</v>
+      </c>
+      <c r="E72" s="3">
         <v>393100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>471400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>461400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>452900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>438100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>414100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>396800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>367800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>342600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>320900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>392900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>380500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>368200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>362000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>359600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>358600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>350400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>341900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>338800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>329300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>321300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>314700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>309400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>307800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>293400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5857,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5943,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6029,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>322100</v>
+      </c>
+      <c r="E76" s="3">
         <v>316700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>398500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>387000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>378000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>363700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>338100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>319100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>264700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>241300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>311500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>297800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>285500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>277600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>275800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>273900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>264200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>254200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>249400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>238500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>230100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>222500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>227600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>225000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>265900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6201,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>22200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,40 +6412,41 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6700</v>
       </c>
       <c r="F83" s="3">
         <v>6700</v>
       </c>
       <c r="G83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H83" s="3">
         <v>6800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7300</v>
       </c>
       <c r="J83" s="3">
         <v>7300</v>
       </c>
       <c r="K83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7200</v>
       </c>
       <c r="N83" s="3">
         <v>7200</v>
@@ -6256,10 +6455,10 @@
         <v>7200</v>
       </c>
       <c r="P83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7500</v>
       </c>
       <c r="R83" s="3">
         <v>7500</v>
@@ -6271,7 +6470,7 @@
         <v>7500</v>
       </c>
       <c r="U83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="V83" s="3">
         <v>8200</v>
@@ -6283,22 +6482,25 @@
         <v>8200</v>
       </c>
       <c r="Y83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>7400</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>9300</v>
       </c>
       <c r="AA83" s="3">
         <v>9300</v>
       </c>
       <c r="AB83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AC83" s="3">
         <v>10100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6582,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6668,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6754,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6840,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6926,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>27000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>61800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>45300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>42200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>19400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,91 +7046,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7216,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,91 +7302,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>102900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>12100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-119900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,91 +7422,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-13900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-17600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-15100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-94800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-4000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-7800</v>
       </c>
       <c r="AB96" s="3">
         <v>-7800</v>
       </c>
       <c r="AC96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7592,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7678,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,91 +7764,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-94800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-63700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-21800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7687,87 +7936,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-99300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>29000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>8900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-52000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-14200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,387 +665,400 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E8" s="3">
         <v>149500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>149200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>139400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>140700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>166600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>168000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>178200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>184400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>145700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>95000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>96300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>121100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>114900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>128400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>131200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>118200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>104800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>131900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>167400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>161800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E9" s="3">
         <v>111000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>108500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>104600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>113400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>121300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>111800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>90200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>87300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>86900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>91800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>95300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>85100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>74600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>96900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>111600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>108400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E10" s="3">
         <v>38500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>63400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>36600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>33100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>30200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>35000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>55800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>53400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1089,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1162,8 +1176,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1248,8 +1265,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1354,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1420,8 +1443,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1449,180 +1475,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E17" s="3">
         <v>132400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>119500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>131500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>140400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>106200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>103500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>88900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>97600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>103000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>109000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>112600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>104400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>91500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>116600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>133500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>130200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E18" s="3">
         <v>17100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>18600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>15300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>33900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>31600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,180 +1686,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>900</v>
       </c>
       <c r="H20" s="3">
         <v>900</v>
       </c>
       <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>700</v>
       </c>
       <c r="P20" s="3">
         <v>700</v>
       </c>
       <c r="Q20" s="3">
+        <v>700</v>
+      </c>
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
       </c>
       <c r="U20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>300</v>
       </c>
       <c r="AB20" s="3">
         <v>300</v>
       </c>
       <c r="AC20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD20" s="3">
         <v>700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E21" s="3">
         <v>25100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>46400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>59900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>48500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>28200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>27100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>25000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>43500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>42500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,26 +1874,26 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1861,28 +1901,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
@@ -1893,8 +1933,8 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1911,180 +1951,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E23" s="3">
         <v>18500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>48000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>18900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>13400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>15700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>34200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>32400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2169,180 +2218,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>14400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>9800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>9400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>10200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>22200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>20800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>9800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>9400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>22200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>20800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2427,8 +2485,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2477,8 +2538,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2495,11 +2556,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2513,8 +2574,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2599,8 +2663,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2685,180 +2752,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-900</v>
       </c>
       <c r="H32" s="3">
         <v>-900</v>
       </c>
       <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-700</v>
       </c>
       <c r="P32" s="3">
         <v>-700</v>
       </c>
       <c r="Q32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
       </c>
       <c r="U32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-300</v>
       </c>
       <c r="AB32" s="3">
         <v>-300</v>
       </c>
       <c r="AC32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>9400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>22200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>20800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2943,185 +3019,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>9400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>22200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>20800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3152,8 +3237,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3184,153 +3270,157 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>137800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>131700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>102700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>63500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>45400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>44000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>35100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>87100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E42" s="3">
         <v>122000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>159100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>165300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>165000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>170000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>200000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>165000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>150000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>122000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>121000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>104000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>208900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>149600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>129500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>114500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>99600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>99500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>114300</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3347,8 +3437,8 @@
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -3356,352 +3446,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E43" s="3">
         <v>65200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>71900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>41500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>45000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>46800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>50100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>61100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>60100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>53200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>55600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>77600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>69400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E44" s="3">
         <v>62000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>65000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>28300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>41500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>36500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>26200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>24000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>26100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>39700</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>52200</v>
       </c>
       <c r="AA44" s="3">
         <v>52200</v>
       </c>
       <c r="AB44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="AC44" s="3">
         <v>55000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>54500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>12500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E46" s="3">
         <v>264000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>361800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>351000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>334100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>336300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>328700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>308900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>285600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>252200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>213000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>294900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>264600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>249300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>229900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>220500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>226700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>232200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>214400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>208500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>192900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>166800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>153300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>154200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>170900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>214800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3786,94 +3891,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E48" s="3">
         <v>75800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>77700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>75300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>69500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>67900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>73300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>76500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>72100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>74300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>80700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>82700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>90000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>97100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>103800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>91600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>96600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>102200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>104200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3958,8 +4069,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4044,8 +4158,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4130,94 +4247,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E52" s="3">
         <v>49300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>44900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>41000</v>
       </c>
       <c r="M52" s="3">
         <v>41000</v>
       </c>
       <c r="N52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="O52" s="3">
         <v>34900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>32600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>33300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>31000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>27900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4302,94 +4425,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>396900</v>
+      </c>
+      <c r="E54" s="3">
         <v>389100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>484800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>460900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>443700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>446500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>442300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>420100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>398900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>364100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>348300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>310600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>362400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>349000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>328500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>320900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>331700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>335500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>316100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>312800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>303300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>284300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>277500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>284100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>304100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>346900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4420,8 +4549,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4452,94 +4582,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E57" s="3">
         <v>32700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>28200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>30800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>34600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>45300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>48500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4624,180 +4758,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E59" s="3">
         <v>28900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>20300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>23500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>21800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>33100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>32400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E60" s="3">
         <v>61600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>67400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>71200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>61800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>62400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>64000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>52700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>54300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>56400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>78400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>80900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4882,94 +5025,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2300</v>
       </c>
       <c r="H62" s="3">
         <v>2300</v>
       </c>
       <c r="I62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="J62" s="3">
         <v>1600</v>
       </c>
       <c r="K62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
       <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
         <v>1000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5054,8 +5203,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5140,8 +5292,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5226,94 +5381,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E66" s="3">
         <v>67000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>71300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>55000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>56500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>79100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>81000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5344,8 +5505,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5430,8 +5592,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5516,8 +5681,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5602,8 +5770,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5688,94 +5859,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>409700</v>
+      </c>
+      <c r="E72" s="3">
         <v>399400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>393100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>471400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>461400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>452900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>438100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>414100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>396800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>367800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>342600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>320900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>392900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>380500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>368200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>362000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>359600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>358600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>350400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>341900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>338800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>329300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>321300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>314700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>309400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>307800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>293400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5860,8 +6037,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5946,8 +6126,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6032,94 +6215,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E76" s="3">
         <v>322100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>316700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>398500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>387000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>378000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>363700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>338100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>319100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>264700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>241300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>311500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>297800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>285500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>277600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>275800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>273900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>264200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>254200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>249400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>238500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>230100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>222500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>227600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>225000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>265900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6204,185 +6393,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>9400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>22200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>20800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6413,8 +6611,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,34 +6621,34 @@
         <v>6500</v>
       </c>
       <c r="E83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F83" s="3">
         <v>5700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6700</v>
       </c>
       <c r="G83" s="3">
         <v>6700</v>
       </c>
       <c r="H83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I83" s="3">
         <v>6800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7300</v>
       </c>
       <c r="K83" s="3">
         <v>7300</v>
       </c>
       <c r="L83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7200</v>
       </c>
       <c r="O83" s="3">
         <v>7200</v>
@@ -6458,10 +6657,10 @@
         <v>7200</v>
       </c>
       <c r="Q83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R83" s="3">
         <v>6900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7500</v>
       </c>
       <c r="S83" s="3">
         <v>7500</v>
@@ -6473,7 +6672,7 @@
         <v>7500</v>
       </c>
       <c r="V83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="W83" s="3">
         <v>8200</v>
@@ -6485,22 +6684,25 @@
         <v>8200</v>
       </c>
       <c r="Z83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AA83" s="3">
         <v>7400</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>9300</v>
       </c>
       <c r="AB83" s="3">
         <v>9300</v>
       </c>
       <c r="AC83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AD83" s="3">
         <v>10100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6585,8 +6787,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6671,8 +6876,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6757,8 +6965,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6843,8 +7054,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6929,94 +7143,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E89" s="3">
         <v>5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>61800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>35700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>45300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>42200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>19100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>18900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>19400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7047,94 +7267,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7219,8 +7443,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7305,94 +7532,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E94" s="3">
         <v>35500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>102900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>12100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-119900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7423,94 +7656,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-95800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-17600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-94800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-7800</v>
       </c>
       <c r="AC96" s="3">
         <v>-7800</v>
       </c>
       <c r="AD96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7595,8 +7832,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7681,8 +7921,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7767,94 +8010,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-97900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-94800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-63700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-21800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7939,90 +8188,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-99300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>29000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>8900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-52000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-14200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>RGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,400 +665,413 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E8" s="3">
         <v>142800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>149500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>149200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>139400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>140700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>166600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>168000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>178200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>184400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>169300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>145700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>123600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>105100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>95000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>96300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>114000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>121100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>114900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>128400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>131200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>118200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>104800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>131900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>167400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>161800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E9" s="3">
         <v>104700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>97100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>108500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>104600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>121300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>111800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>105100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>94600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>90200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>80400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>75100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>81400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>87300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>86900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>91800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>95300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>85100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>74600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>96900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>111600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>108400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E10" s="3">
         <v>38100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>43600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>58100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>63400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>78800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>72600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>33800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>28000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>36600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>35900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>33100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>30200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>35000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>55800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>53400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,8 +1103,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1179,8 +1193,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1268,8 +1285,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1357,8 +1377,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1446,8 +1469,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1476,186 +1502,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E17" s="3">
         <v>124400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>119500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>103500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>89400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>88900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>97600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>103000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>109000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>104400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>91500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>116600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>133500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>130200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>18400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>18600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>15300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>33900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>31600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1687,8 +1720,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,207 +1730,213 @@
         <v>1900</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>900</v>
       </c>
       <c r="I20" s="3">
         <v>900</v>
       </c>
       <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>700</v>
       </c>
       <c r="Q20" s="3">
         <v>700</v>
       </c>
       <c r="R20" s="3">
+        <v>700</v>
+      </c>
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
       </c>
       <c r="V20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>300</v>
       </c>
       <c r="AC20" s="3">
         <v>300</v>
       </c>
       <c r="AD20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE20" s="3">
         <v>700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>26800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>46400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>55400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>59900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>48500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>28200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>27100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>20800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>25000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>43500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>42500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1904,28 +1944,28 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1976,8 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1954,186 +1994,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>20200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>48000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>18900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>14300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>13400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>15700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>34200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>32400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>11500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2221,186 +2270,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>15200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>9800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>9400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>10200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>22200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>20800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>15200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>9800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>9400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>22200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>20800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2488,8 +2546,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2541,8 +2602,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2559,11 +2620,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>500</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2577,8 +2638,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2666,8 +2730,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2755,8 +2822,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,177 +2834,183 @@
         <v>-1900</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-900</v>
       </c>
       <c r="I32" s="3">
         <v>-900</v>
       </c>
       <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-700</v>
       </c>
       <c r="Q32" s="3">
         <v>-700</v>
       </c>
       <c r="R32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
       </c>
       <c r="V32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-300</v>
       </c>
       <c r="AC32" s="3">
         <v>-300</v>
       </c>
       <c r="AD32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>9400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>10200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>22200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>20800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3022,191 +3098,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>9400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>10200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>22200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>20800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3238,8 +3323,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3271,159 +3357,163 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>38500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>137800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>131700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>102700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>63500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>45400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>44000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>35100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>87100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E42" s="3">
         <v>126200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>159100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>165300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>165000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>170000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>165000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>150000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>122000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>121000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>104000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>208900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>149600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>129500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>114500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>99600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>99500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>114300</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -3440,8 +3530,8 @@
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC42" s="3">
-        <v>0</v>
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD42" s="3">
         <v>0</v>
@@ -3449,364 +3539,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E43" s="3">
         <v>53100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>56200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>71900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>73200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>41500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>52200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>45000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>46800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>50100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>61100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>60100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>53200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>55600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>77600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>69400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E44" s="3">
         <v>69400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>62000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>65000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>32000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>28300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>41500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>36500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>24000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>26100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>39700</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>52200</v>
       </c>
       <c r="AB44" s="3">
         <v>52200</v>
       </c>
       <c r="AC44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="AD44" s="3">
         <v>55000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>54500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>12500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E46" s="3">
         <v>268100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>264000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>361800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>351000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>334100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>336300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>328700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>308900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>285600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>252200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>213000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>294900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>264600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>249300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>229900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>220500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>226700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>232200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>214400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>208500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>192900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>166800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>153300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>154200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>170900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>214800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3894,8 +3999,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3903,88 +4011,91 @@
         <v>72700</v>
       </c>
       <c r="E48" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F48" s="3">
         <v>75800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>77700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>75300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>67900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>73300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>76500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>72100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>74300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>80700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>82700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>90000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>97100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>103800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>91600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>96600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>102200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>104200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4072,8 +4183,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4161,8 +4275,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4250,97 +4367,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E52" s="3">
         <v>56200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>41000</v>
       </c>
       <c r="N52" s="3">
         <v>41000</v>
       </c>
       <c r="O52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="P52" s="3">
         <v>34900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>32600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>33300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>31000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>27900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4428,97 +4551,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400400</v>
+      </c>
+      <c r="E54" s="3">
         <v>396900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>389100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>484800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>460900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>443700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>446500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>442300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>420100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>398900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>364100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>348300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>310600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>389900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>362400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>349000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>328500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>320900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>331700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>335500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>316100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>312800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>303300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>284300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>277500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>284100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>304100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>346900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4550,8 +4679,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4583,97 +4713,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E57" s="3">
         <v>29700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>30200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>28900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>28200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>32400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>30800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>34600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>45300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>48500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4761,186 +4895,195 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E59" s="3">
         <v>30200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>24100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>31600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>20300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>23500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>21800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>33100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>32400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E60" s="3">
         <v>59900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>163100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>67400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>43000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>71200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>61800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>62400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>64000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>52700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>54300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>56400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>78400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>80900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5028,97 +5171,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2300</v>
       </c>
       <c r="I62" s="3">
         <v>2300</v>
       </c>
       <c r="J62" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="K62" s="3">
         <v>1600</v>
       </c>
       <c r="L62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
       </c>
       <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5206,8 +5355,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5295,8 +5447,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5384,97 +5539,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>71300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>61900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>63300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>54200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>55000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>56500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>79100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>81000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>94700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5506,8 +5667,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5595,8 +5757,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5684,8 +5849,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5773,8 +5941,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5862,97 +6033,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>410900</v>
+      </c>
+      <c r="E72" s="3">
         <v>409700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>399400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>393100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>471400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>461400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>452900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>438100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>414100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>396800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>367800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>342600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>320900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>392900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>380500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>368200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>362000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>359600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>358600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>350400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>341900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>338800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>329300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>321300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>314700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>309400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>307800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>293400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>280400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6040,8 +6217,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6129,8 +6309,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6218,97 +6401,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E76" s="3">
         <v>333200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>322100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>316700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>398500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>387000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>378000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>363700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>338100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>319100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>288500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>264700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>241300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>311500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>297800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>285500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>277600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>275800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>273900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>264200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>254200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>249400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>238500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>230100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>222500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>227600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>225000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>265900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>266100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6396,191 +6585,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>10200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>22200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>20800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6612,8 +6810,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,34 +6823,34 @@
         <v>6500</v>
       </c>
       <c r="F83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G83" s="3">
         <v>5700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>6700</v>
       </c>
       <c r="H83" s="3">
         <v>6700</v>
       </c>
       <c r="I83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7300</v>
       </c>
       <c r="L83" s="3">
         <v>7300</v>
       </c>
       <c r="M83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7200</v>
       </c>
       <c r="P83" s="3">
         <v>7200</v>
@@ -6660,10 +6859,10 @@
         <v>7200</v>
       </c>
       <c r="R83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S83" s="3">
         <v>6900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>7500</v>
       </c>
       <c r="T83" s="3">
         <v>7500</v>
@@ -6675,7 +6874,7 @@
         <v>7500</v>
       </c>
       <c r="W83" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="X83" s="3">
         <v>8200</v>
@@ -6687,22 +6886,25 @@
         <v>8200</v>
       </c>
       <c r="AA83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AB83" s="3">
         <v>7400</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>9300</v>
       </c>
       <c r="AC83" s="3">
         <v>9300</v>
       </c>
       <c r="AD83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AE83" s="3">
         <v>10100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6790,8 +6992,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6879,8 +7084,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6968,8 +7176,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7057,8 +7268,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7146,97 +7360,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>35700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>45300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>42200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>19100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>21000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>18900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>19400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7268,97 +7488,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-7200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7446,8 +7670,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7535,97 +7762,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>35500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>102900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>12100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-119900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-11800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7657,97 +7890,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-95800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-94800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-8500</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-7800</v>
       </c>
       <c r="AD96" s="3">
         <v>-7800</v>
       </c>
       <c r="AE96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7835,8 +8072,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7924,8 +8164,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8013,97 +8256,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-97900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-94800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-15400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-63700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-21800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8191,93 +8440,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-99300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>29000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>39200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>8900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-52000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-14200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1700</v>
       </c>
     </row>
